--- a/Code/Results/Cases/Case_1_233/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_233/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.35246754259491</v>
+        <v>20.93624178807288</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.327526558775173</v>
+        <v>8.007321480904176</v>
       </c>
       <c r="E2">
-        <v>47.41678104278241</v>
+        <v>26.42599522793639</v>
       </c>
       <c r="F2">
-        <v>66.85128991787748</v>
+        <v>45.73867726674013</v>
       </c>
       <c r="G2">
-        <v>1.899034250967263</v>
+        <v>3.654038404568322</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>18.63501591145361</v>
+        <v>13.38062912091392</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.52767651153965</v>
+        <v>20.54987272643285</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.443367226898767</v>
+        <v>7.958596390032397</v>
       </c>
       <c r="E3">
-        <v>43.85479884057408</v>
+        <v>24.86685746047598</v>
       </c>
       <c r="F3">
-        <v>61.02819305222042</v>
+        <v>44.67071753454178</v>
       </c>
       <c r="G3">
-        <v>1.934489514397154</v>
+        <v>3.663261123953052</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.19639574986159</v>
+        <v>13.03367191781584</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44835709162123</v>
+        <v>20.31469454537249</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.023586121452686</v>
+        <v>7.933830317638796</v>
       </c>
       <c r="E4">
-        <v>41.62961544183082</v>
+        <v>23.85661798970947</v>
       </c>
       <c r="F4">
-        <v>57.48867918494193</v>
+        <v>44.03141973765547</v>
       </c>
       <c r="G4">
-        <v>1.955665746025989</v>
+        <v>3.669183571179548</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.28999815649275</v>
+        <v>12.81956719320399</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.02891199778175</v>
+        <v>20.21949869737812</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.857769469377482</v>
+        <v>7.925020047863359</v>
       </c>
       <c r="E5">
-        <v>40.70984345548985</v>
+        <v>23.43174259900401</v>
       </c>
       <c r="F5">
-        <v>56.04876104572563</v>
+        <v>43.77540837213416</v>
       </c>
       <c r="G5">
-        <v>1.964207020292551</v>
+        <v>3.671662807201172</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.91372427840724</v>
+        <v>12.73217721965457</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.95892805227967</v>
+        <v>20.20373387657069</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.830529842451495</v>
+        <v>7.923634093449548</v>
       </c>
       <c r="E6">
-        <v>40.55624931814032</v>
+        <v>23.36039945639675</v>
       </c>
       <c r="F6">
-        <v>55.80966024428285</v>
+        <v>43.73318089601745</v>
       </c>
       <c r="G6">
-        <v>1.965621456310658</v>
+        <v>3.672078470489768</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.85079962901529</v>
+        <v>12.71766156432649</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.4427225480817</v>
+        <v>20.31340793968598</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.021329684176379</v>
+        <v>7.933706327979796</v>
       </c>
       <c r="E7">
-        <v>41.61726749478014</v>
+        <v>23.85094122075382</v>
       </c>
       <c r="F7">
-        <v>57.46925710485161</v>
+        <v>44.02794833885007</v>
       </c>
       <c r="G7">
-        <v>1.955781224597784</v>
+        <v>3.669216739983044</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.28495283839061</v>
+        <v>12.81838901624028</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.72919209354808</v>
+        <v>20.80266998673138</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.016515769783046</v>
+        <v>7.989444977257598</v>
       </c>
       <c r="E8">
-        <v>46.19412690143994</v>
+        <v>25.89944597340774</v>
       </c>
       <c r="F8">
-        <v>64.83133199132855</v>
+        <v>45.367261604772</v>
       </c>
       <c r="G8">
-        <v>1.91142481178975</v>
+        <v>3.657164807446974</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.1430067663823</v>
+        <v>13.26129625272413</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.17251538957722</v>
+        <v>21.77299625187807</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.37680449582224</v>
+        <v>8.140044548018139</v>
       </c>
       <c r="E9">
-        <v>55.10208381625209</v>
+        <v>29.49330409754084</v>
       </c>
       <c r="F9">
-        <v>80.02485103817311</v>
+        <v>48.10728683143748</v>
       </c>
       <c r="G9">
-        <v>1.815620464750626</v>
+        <v>3.635568377312479</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.67654454350044</v>
+        <v>14.11598174848211</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.49396733744117</v>
+        <v>22.48546241217728</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>13.41891425798105</v>
+        <v>8.27620527094952</v>
       </c>
       <c r="E10">
-        <v>62.21535700637729</v>
+        <v>31.87306352521066</v>
       </c>
       <c r="F10">
-        <v>92.88906931030203</v>
+        <v>50.1673711829193</v>
       </c>
       <c r="G10">
-        <v>1.729421159021489</v>
+        <v>3.620911034756401</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.38665723809414</v>
+        <v>14.72880994551854</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.11254307035157</v>
+        <v>22.80806585317183</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>14.54168248224776</v>
+        <v>8.343692194333924</v>
       </c>
       <c r="E11">
-        <v>65.93353249687598</v>
+        <v>32.89893113702733</v>
       </c>
       <c r="F11">
-        <v>99.83664199819395</v>
+        <v>51.11022098951422</v>
       </c>
       <c r="G11">
-        <v>1.680763231254818</v>
+        <v>3.614498505104904</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.74656119109589</v>
+        <v>15.00306743614303</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.76298652963822</v>
+        <v>22.92989958922019</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>15.02496927943718</v>
+        <v>8.370040837897786</v>
       </c>
       <c r="E12">
-        <v>67.49713549338539</v>
+        <v>33.27925190359166</v>
       </c>
       <c r="F12">
-        <v>102.7974527469419</v>
+        <v>51.4677174654156</v>
       </c>
       <c r="G12">
-        <v>1.659554852018116</v>
+        <v>3.612106356547403</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>26.30377026920912</v>
+        <v>15.10617814692831</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.62051267589848</v>
+        <v>22.90367689685235</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>14.91729836188756</v>
+        <v>8.364331032101029</v>
       </c>
       <c r="E13">
-        <v>67.15059479851698</v>
+        <v>33.1977055074591</v>
       </c>
       <c r="F13">
-        <v>102.1394249323004</v>
+        <v>51.39070928074593</v>
       </c>
       <c r="G13">
-        <v>1.664293266463184</v>
+        <v>3.612619950302316</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>26.18109790223329</v>
+        <v>15.08400594441004</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.16506405535496</v>
+        <v>22.81809641369756</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>14.57994564837216</v>
+        <v>8.345844061523714</v>
       </c>
       <c r="E14">
-        <v>66.0581006359272</v>
+        <v>32.93038371289065</v>
       </c>
       <c r="F14">
-        <v>100.0717286271885</v>
+        <v>51.13962521951782</v>
       </c>
       <c r="G14">
-        <v>1.679089789893037</v>
+        <v>3.614300980587685</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.79129465308963</v>
+        <v>15.01156585173559</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.89212617267552</v>
+        <v>22.76562976309735</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>14.38247181279961</v>
+        <v>8.334623314571008</v>
       </c>
       <c r="E15">
-        <v>65.41374860042193</v>
+        <v>32.76557982846833</v>
       </c>
       <c r="F15">
-        <v>98.8572426733209</v>
+        <v>50.98587849293978</v>
       </c>
       <c r="G15">
-        <v>1.687715706384494</v>
+        <v>3.615335349615454</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>25.55928821623678</v>
+        <v>14.96709456657238</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.3916987730791</v>
+        <v>22.46433949348061</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>13.35126501002459</v>
+        <v>8.271906111329043</v>
       </c>
       <c r="E16">
-        <v>61.9872618765183</v>
+        <v>31.80487949450124</v>
       </c>
       <c r="F16">
-        <v>92.46750119302231</v>
+        <v>50.10583725103375</v>
       </c>
       <c r="G16">
-        <v>1.732324852621401</v>
+        <v>3.621335196059589</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.30179511515592</v>
+        <v>14.71078732514815</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.50805718577907</v>
+        <v>22.27904076681869</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.78080390146907</v>
+        <v>8.234849294359353</v>
       </c>
       <c r="E17">
-        <v>60.04425109835564</v>
+        <v>31.20099555406181</v>
       </c>
       <c r="F17">
-        <v>88.89970439455965</v>
+        <v>49.56715899844269</v>
       </c>
       <c r="G17">
-        <v>1.75668107757331</v>
+        <v>3.625080870613514</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.57289801592489</v>
+        <v>14.55232324396755</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.00809427083945</v>
+        <v>22.17232699111524</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12.46839201697299</v>
+        <v>8.214057757708922</v>
       </c>
       <c r="E18">
-        <v>58.96483697545648</v>
+        <v>30.84832005691125</v>
       </c>
       <c r="F18">
-        <v>86.93625169526416</v>
+        <v>49.2578831096281</v>
       </c>
       <c r="G18">
-        <v>1.769920593549424</v>
+        <v>3.627259335183057</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.16360636372758</v>
+        <v>14.46075846231833</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.83989407321409</v>
+        <v>22.13617592786397</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>12.36484858213626</v>
+        <v>8.207107950450974</v>
       </c>
       <c r="E19">
-        <v>58.60460781827839</v>
+        <v>30.72799368761882</v>
       </c>
       <c r="F19">
-        <v>86.28403812515269</v>
+        <v>49.1532747046919</v>
       </c>
       <c r="G19">
-        <v>1.774292978994304</v>
+        <v>3.628001073490966</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.02636562460976</v>
+        <v>14.4296870085561</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.60117616665725</v>
+        <v>22.29878092851833</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.8397856175237</v>
+        <v>8.238739998043524</v>
       </c>
       <c r="E20">
-        <v>60.24679981659171</v>
+        <v>31.26583247227232</v>
       </c>
       <c r="F20">
-        <v>89.26964314409742</v>
+        <v>49.62444718915462</v>
       </c>
       <c r="G20">
-        <v>1.754173615536138</v>
+        <v>3.62467965189937</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.64936479283822</v>
+        <v>14.5692362405801</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.29748917750668</v>
+        <v>22.8432432841767</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>14.67699493128339</v>
+        <v>8.351252668612895</v>
       </c>
       <c r="E21">
-        <v>66.37344621575906</v>
+        <v>33.00912381772223</v>
       </c>
       <c r="F21">
-        <v>100.6674809363009</v>
+        <v>51.21336499108013</v>
       </c>
       <c r="G21">
-        <v>1.674840924284063</v>
+        <v>3.613806244973591</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.90427879268315</v>
+        <v>15.03286418399541</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.33080877780505</v>
+        <v>23.1971138368016</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16.29017011740091</v>
+        <v>8.429403139700414</v>
       </c>
       <c r="E22">
-        <v>71.49666610138577</v>
+        <v>34.10095119282564</v>
       </c>
       <c r="F22">
-        <v>110.4571175405984</v>
+        <v>52.25434211063816</v>
       </c>
       <c r="G22">
-        <v>1.603318536104444</v>
+        <v>3.606910214154971</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>27.68195215265502</v>
+        <v>15.33149354150994</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.19958591808806</v>
+        <v>23.00846235354179</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>15.36178504926809</v>
+        <v>8.387272617713453</v>
       </c>
       <c r="E23">
-        <v>68.57468838829902</v>
+        <v>33.52256702371124</v>
       </c>
       <c r="F23">
-        <v>104.8498067599332</v>
+        <v>51.69863548678651</v>
       </c>
       <c r="G23">
-        <v>1.644683217238522</v>
+        <v>3.61057169348294</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26.68207281048966</v>
+        <v>15.17253910342913</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.55905313810018</v>
+        <v>22.28985696296986</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.81307309759893</v>
+        <v>8.236979412941087</v>
       </c>
       <c r="E24">
-        <v>60.15511470449225</v>
+        <v>31.23653681579315</v>
       </c>
       <c r="F24">
-        <v>89.10212951656179</v>
+        <v>49.59854587034846</v>
       </c>
       <c r="G24">
-        <v>1.755309542696533</v>
+        <v>3.624860964886804</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.61476500312798</v>
+        <v>14.56159130554833</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.97811662021482</v>
+        <v>21.51007494501343</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.70708422810609</v>
+        <v>8.094834061945555</v>
       </c>
       <c r="E25">
-        <v>52.65671701929657</v>
+        <v>28.56673599358854</v>
       </c>
       <c r="F25">
-        <v>75.74694816287135</v>
+        <v>47.35619849320319</v>
       </c>
       <c r="G25">
-        <v>1.843222800880653</v>
+        <v>3.641195992914038</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.71939801548101</v>
+        <v>13.886967354046</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_233/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_233/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.93624178807288</v>
+        <v>24.35246754259492</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.007321480904176</v>
+        <v>9.327526558775189</v>
       </c>
       <c r="E2">
-        <v>26.42599522793639</v>
+        <v>47.41678104278224</v>
       </c>
       <c r="F2">
-        <v>45.73867726674013</v>
+        <v>66.85128991787762</v>
       </c>
       <c r="G2">
-        <v>3.654038404568322</v>
+        <v>1.899034250967528</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.38062912091392</v>
+        <v>18.63501591145366</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.54987272643285</v>
+        <v>22.52767651153965</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.958596390032397</v>
+        <v>8.443367226898767</v>
       </c>
       <c r="E3">
-        <v>24.86685746047598</v>
+        <v>43.85479884057398</v>
       </c>
       <c r="F3">
-        <v>44.67071753454178</v>
+        <v>61.02819305222022</v>
       </c>
       <c r="G3">
-        <v>3.663261123953052</v>
+        <v>1.934489514397168</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.03367191781584</v>
+        <v>17.19639574986147</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.31469454537249</v>
+        <v>21.44835709162123</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.933830317638796</v>
+        <v>8.023586121452615</v>
       </c>
       <c r="E4">
-        <v>23.85661798970947</v>
+        <v>41.62961544183042</v>
       </c>
       <c r="F4">
-        <v>44.03141973765547</v>
+        <v>57.48867918494147</v>
       </c>
       <c r="G4">
-        <v>3.669183571179548</v>
+        <v>1.955665746025854</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.81956719320399</v>
+        <v>16.28999815649269</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.21949869737812</v>
+        <v>21.02891199778172</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.925020047863359</v>
+        <v>7.857769469377458</v>
       </c>
       <c r="E5">
-        <v>23.43174259900401</v>
+        <v>40.70984345548997</v>
       </c>
       <c r="F5">
-        <v>43.77540837213416</v>
+        <v>56.04876104572571</v>
       </c>
       <c r="G5">
-        <v>3.671662807201172</v>
+        <v>1.964207020292162</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.73217721965457</v>
+        <v>15.91372427840725</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.20373387657069</v>
+        <v>20.95892805227965</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.923634093449548</v>
+        <v>7.830529842451521</v>
       </c>
       <c r="E6">
-        <v>23.36039945639675</v>
+        <v>40.55624931814018</v>
       </c>
       <c r="F6">
-        <v>43.73318089601745</v>
+        <v>55.80966024428283</v>
       </c>
       <c r="G6">
-        <v>3.672078470489768</v>
+        <v>1.965621456310921</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.71766156432649</v>
+        <v>15.85079962901526</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.31340793968598</v>
+        <v>21.44272254808171</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.933706327979796</v>
+        <v>8.021329684176443</v>
       </c>
       <c r="E7">
-        <v>23.85094122075382</v>
+        <v>41.61726749478035</v>
       </c>
       <c r="F7">
-        <v>44.02794833885007</v>
+        <v>57.46925710485201</v>
       </c>
       <c r="G7">
-        <v>3.669216739983044</v>
+        <v>1.955781224597919</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.81838901624028</v>
+        <v>16.28495283839066</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.80266998673138</v>
+        <v>23.72919209354803</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.989444977257598</v>
+        <v>9.016515769783002</v>
       </c>
       <c r="E8">
-        <v>25.89944597340774</v>
+        <v>46.1941269014399</v>
       </c>
       <c r="F8">
-        <v>45.367261604772</v>
+        <v>64.83133199132826</v>
       </c>
       <c r="G8">
-        <v>3.657164807446974</v>
+        <v>1.911424811790005</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.26129625272413</v>
+        <v>18.14300676638235</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.77299625187807</v>
+        <v>28.17251538957716</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.140044548018139</v>
+        <v>11.37680449582225</v>
       </c>
       <c r="E9">
-        <v>29.49330409754084</v>
+        <v>55.10208381625201</v>
       </c>
       <c r="F9">
-        <v>48.10728683143748</v>
+        <v>80.02485103817257</v>
       </c>
       <c r="G9">
-        <v>3.635568377312479</v>
+        <v>1.815620464750634</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.11598174848211</v>
+        <v>21.67654454350036</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.48546241217728</v>
+        <v>31.49396733744123</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.27620527094952</v>
+        <v>13.41891425798113</v>
       </c>
       <c r="E10">
-        <v>31.87306352521066</v>
+        <v>62.2153570063771</v>
       </c>
       <c r="F10">
-        <v>50.1673711829193</v>
+        <v>92.88906931030185</v>
       </c>
       <c r="G10">
-        <v>3.620911034756401</v>
+        <v>1.729421159021824</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.72880994551854</v>
+        <v>24.38665723809418</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.80806585317183</v>
+        <v>33.11254307035154</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.343692194333924</v>
+        <v>14.5416824822479</v>
       </c>
       <c r="E11">
-        <v>32.89893113702733</v>
+        <v>65.9335324968761</v>
       </c>
       <c r="F11">
-        <v>51.11022098951422</v>
+        <v>99.8366419981942</v>
       </c>
       <c r="G11">
-        <v>3.614498505104904</v>
+        <v>1.680763231254887</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>15.00306743614303</v>
+        <v>25.74656119109586</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.92989958922019</v>
+        <v>33.76298652963823</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.370040837897786</v>
+        <v>15.02496927943717</v>
       </c>
       <c r="E12">
-        <v>33.27925190359166</v>
+        <v>67.49713549338554</v>
       </c>
       <c r="F12">
-        <v>51.4677174654156</v>
+        <v>102.7974527469422</v>
       </c>
       <c r="G12">
-        <v>3.612106356547403</v>
+        <v>1.659554852018064</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.10617814692831</v>
+        <v>26.30377026920914</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.90367689685235</v>
+        <v>33.62051267589864</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.364331032101029</v>
+        <v>14.9172983618878</v>
       </c>
       <c r="E13">
-        <v>33.1977055074591</v>
+        <v>67.15059479851726</v>
       </c>
       <c r="F13">
-        <v>51.39070928074593</v>
+        <v>102.139424932301</v>
       </c>
       <c r="G13">
-        <v>3.612619950302316</v>
+        <v>1.664293266463275</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>15.08400594441004</v>
+        <v>26.18109790223344</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.81809641369756</v>
+        <v>33.16506405535496</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.345844061523714</v>
+        <v>14.5799456483719</v>
       </c>
       <c r="E14">
-        <v>32.93038371289065</v>
+        <v>66.05810063592648</v>
       </c>
       <c r="F14">
-        <v>51.13962521951782</v>
+        <v>100.0717286271873</v>
       </c>
       <c r="G14">
-        <v>3.614300980587685</v>
+        <v>1.679089789893033</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>15.01156585173559</v>
+        <v>25.79129465308954</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.76562976309735</v>
+        <v>32.89212617267552</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.334623314571008</v>
+        <v>14.38247181279954</v>
       </c>
       <c r="E15">
-        <v>32.76557982846833</v>
+        <v>65.41374860042175</v>
       </c>
       <c r="F15">
-        <v>50.98587849293978</v>
+        <v>98.85724267332094</v>
       </c>
       <c r="G15">
-        <v>3.615335349615454</v>
+        <v>1.687715706384526</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.96709456657238</v>
+        <v>25.55928821623675</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.46433949348061</v>
+        <v>31.3916987730792</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.271906111329043</v>
+        <v>13.35126501002456</v>
       </c>
       <c r="E16">
-        <v>31.80487949450124</v>
+        <v>61.98726187651791</v>
       </c>
       <c r="F16">
-        <v>50.10583725103375</v>
+        <v>92.46750119302185</v>
       </c>
       <c r="G16">
-        <v>3.621335196059589</v>
+        <v>1.732324852621262</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.71078732514815</v>
+        <v>24.30179511515593</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.27904076681869</v>
+        <v>30.50805718577905</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.234849294359353</v>
+        <v>12.78080390146912</v>
       </c>
       <c r="E17">
-        <v>31.20099555406181</v>
+        <v>60.04425109835563</v>
       </c>
       <c r="F17">
-        <v>49.56715899844269</v>
+        <v>88.89970439455921</v>
       </c>
       <c r="G17">
-        <v>3.625080870613514</v>
+        <v>1.756681077573048</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.55232324396755</v>
+        <v>23.57289801592482</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.17232699111524</v>
+        <v>30.0080942708394</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.214057757708922</v>
+        <v>12.46839201697308</v>
       </c>
       <c r="E18">
-        <v>30.84832005691125</v>
+        <v>58.96483697545636</v>
       </c>
       <c r="F18">
-        <v>49.2578831096281</v>
+        <v>86.93625169526399</v>
       </c>
       <c r="G18">
-        <v>3.627259335183057</v>
+        <v>1.769920593549429</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.46075846231833</v>
+        <v>23.16360636372753</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.13617592786397</v>
+        <v>29.83989407321406</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.207107950450974</v>
+        <v>12.3648485821363</v>
       </c>
       <c r="E19">
-        <v>30.72799368761882</v>
+        <v>58.60460781827847</v>
       </c>
       <c r="F19">
-        <v>49.1532747046919</v>
+        <v>86.28403812515276</v>
       </c>
       <c r="G19">
-        <v>3.628001073490966</v>
+        <v>1.774292978994314</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.4296870085561</v>
+        <v>23.02636562460977</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.29878092851833</v>
+        <v>30.60117616665716</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.238739998043524</v>
+        <v>12.8397856175236</v>
       </c>
       <c r="E20">
-        <v>31.26583247227232</v>
+        <v>60.24679981659149</v>
       </c>
       <c r="F20">
-        <v>49.62444718915462</v>
+        <v>89.26964314409659</v>
       </c>
       <c r="G20">
-        <v>3.62467965189937</v>
+        <v>1.75417361553598</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.5692362405801</v>
+        <v>23.64936479283812</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.8432432841767</v>
+        <v>33.29748917750666</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.351252668612895</v>
+        <v>14.67699493128329</v>
       </c>
       <c r="E21">
-        <v>33.00912381772223</v>
+        <v>66.37344621575907</v>
       </c>
       <c r="F21">
-        <v>51.21336499108013</v>
+        <v>100.6674809363009</v>
       </c>
       <c r="G21">
-        <v>3.613806244973591</v>
+        <v>1.674840924284068</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>15.03286418399541</v>
+        <v>25.90427879268318</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.1971138368016</v>
+        <v>35.3308087778051</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.429403139700414</v>
+        <v>16.2901701174008</v>
       </c>
       <c r="E22">
-        <v>34.10095119282564</v>
+        <v>71.49666610138561</v>
       </c>
       <c r="F22">
-        <v>52.25434211063816</v>
+        <v>110.4571175405981</v>
       </c>
       <c r="G22">
-        <v>3.606910214154971</v>
+        <v>1.603318536104438</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15.33149354150994</v>
+        <v>27.68195215265492</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.00846235354179</v>
+        <v>34.19958591808807</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.387272617713453</v>
+        <v>15.36178504926826</v>
       </c>
       <c r="E23">
-        <v>33.52256702371124</v>
+        <v>68.57468838829922</v>
       </c>
       <c r="F23">
-        <v>51.69863548678651</v>
+        <v>104.8498067599337</v>
       </c>
       <c r="G23">
-        <v>3.61057169348294</v>
+        <v>1.644683217238516</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>15.17253910342913</v>
+        <v>26.68207281048963</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.28985696296986</v>
+        <v>30.55905313810022</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.236979412941087</v>
+        <v>12.81307309759906</v>
       </c>
       <c r="E24">
-        <v>31.23653681579315</v>
+        <v>60.15511470449224</v>
       </c>
       <c r="F24">
-        <v>49.59854587034846</v>
+        <v>89.10212951656183</v>
       </c>
       <c r="G24">
-        <v>3.624860964886804</v>
+        <v>1.755309542696573</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.56159130554833</v>
+        <v>23.61476500312801</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.51007494501343</v>
+        <v>26.97811662021485</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.094834061945555</v>
+        <v>10.7070842281063</v>
       </c>
       <c r="E25">
-        <v>28.56673599358854</v>
+        <v>52.65671701929669</v>
       </c>
       <c r="F25">
-        <v>47.35619849320319</v>
+        <v>75.74694816287173</v>
       </c>
       <c r="G25">
-        <v>3.641195992914038</v>
+        <v>1.843222800880791</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.886967354046</v>
+        <v>20.71939801548109</v>
       </c>
       <c r="M25">
         <v>0</v>
